--- a/user_results.xlsx
+++ b/user_results.xlsx
@@ -1,61 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndeke\Documents\Programming\R\PROJECTS\dashboard\A-Complete-Dashboard\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E40281-D83F-469B-A367-6124E8D3F247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="7335" yWindow="1200" windowWidth="11070" windowHeight="10275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiswahili</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social_Studies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jefferson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joshua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Janet</t>
+    <t>user</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>Kiswahili</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Social.Studies</t>
+  </si>
+  <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Janet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -91,6 +98,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -372,14 +388,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,128 +420,128 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="n">
-        <v>42.52</v>
-      </c>
-      <c r="C2" t="n">
-        <v>83.99</v>
-      </c>
-      <c r="D2" t="n">
-        <v>36.38</v>
-      </c>
-      <c r="E2" t="n">
-        <v>47.04</v>
-      </c>
-      <c r="F2" t="n">
-        <v>39.3</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2">
+        <v>46.44</v>
+      </c>
+      <c r="C2">
+        <v>79.510000000000005</v>
+      </c>
+      <c r="D2">
+        <v>49.68</v>
+      </c>
+      <c r="E2">
+        <v>79.349999999999994</v>
+      </c>
+      <c r="F2">
+        <v>38.31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
-        <v>71.9</v>
-      </c>
-      <c r="C3" t="n">
-        <v>74.35</v>
-      </c>
-      <c r="D3" t="n">
-        <v>39.09</v>
-      </c>
-      <c r="E3" t="n">
-        <v>69.41</v>
-      </c>
-      <c r="F3" t="n">
-        <v>38.87</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>42.34</v>
+      </c>
+      <c r="C3">
+        <v>53.21</v>
+      </c>
+      <c r="D3">
+        <v>52.15</v>
+      </c>
+      <c r="E3">
+        <v>83.82</v>
+      </c>
+      <c r="F3">
+        <v>52.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
-        <v>77.38</v>
-      </c>
-      <c r="C4" t="n">
-        <v>74.42</v>
-      </c>
-      <c r="D4" t="n">
-        <v>63.64</v>
-      </c>
-      <c r="E4" t="n">
-        <v>73.41</v>
-      </c>
-      <c r="F4" t="n">
-        <v>56.74</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>40.42</v>
+      </c>
+      <c r="C4">
+        <v>63.34</v>
+      </c>
+      <c r="D4">
+        <v>37.58</v>
+      </c>
+      <c r="E4">
+        <v>59.32</v>
+      </c>
+      <c r="F4">
+        <v>67.59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="n">
-        <v>60.68</v>
-      </c>
-      <c r="C5" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>41.83</v>
-      </c>
-      <c r="E5" t="n">
-        <v>67.78</v>
-      </c>
-      <c r="F5" t="n">
-        <v>43.14</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5">
+        <v>53.51</v>
+      </c>
+      <c r="C5">
+        <v>58.97</v>
+      </c>
+      <c r="D5">
+        <v>58.48</v>
+      </c>
+      <c r="E5">
+        <v>62.27</v>
+      </c>
+      <c r="F5">
+        <v>64.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="n">
-        <v>80.75</v>
-      </c>
-      <c r="C6" t="n">
-        <v>52.23</v>
-      </c>
-      <c r="D6" t="n">
-        <v>79.54</v>
-      </c>
-      <c r="E6" t="n">
-        <v>49.29</v>
-      </c>
-      <c r="F6" t="n">
-        <v>64.5</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6">
+        <v>62.77</v>
+      </c>
+      <c r="C6">
+        <v>67.5</v>
+      </c>
+      <c r="D6">
+        <v>44.4</v>
+      </c>
+      <c r="E6">
+        <v>61.3</v>
+      </c>
+      <c r="F6">
+        <v>83.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="n">
-        <v>57.78</v>
-      </c>
-      <c r="C7" t="n">
-        <v>48.54</v>
-      </c>
-      <c r="D7" t="n">
-        <v>34.66</v>
-      </c>
-      <c r="E7" t="n">
-        <v>46.32</v>
-      </c>
-      <c r="F7" t="n">
-        <v>75.33</v>
+      <c r="B7">
+        <v>50.9</v>
+      </c>
+      <c r="C7">
+        <v>47.05</v>
+      </c>
+      <c r="D7">
+        <v>39.07</v>
+      </c>
+      <c r="E7">
+        <v>65.14</v>
+      </c>
+      <c r="F7">
+        <v>35.979999999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/user_results.xlsx
+++ b/user_results.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndeke\Documents\Programming\R\PROJECTS\dashboard\A-Complete-Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\programming\R\projects\A-Complete-Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E40281-D83F-469B-A367-6124E8D3F247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7335" yWindow="1200" windowWidth="11070" windowHeight="10275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -37,9 +36,6 @@
     <t>Science</t>
   </si>
   <si>
-    <t>Social.Studies</t>
-  </si>
-  <si>
     <t>Jefferson</t>
   </si>
   <si>
@@ -56,12 +52,15 @@
   </si>
   <si>
     <t>Janet</t>
+  </si>
+  <si>
+    <t>Social Studies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,11 +387,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,12 +416,12 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>46.44</v>
@@ -442,7 +441,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>42.34</v>
@@ -462,7 +461,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>40.42</v>
@@ -482,7 +481,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>53.51</v>
@@ -502,7 +501,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>62.77</v>
@@ -522,7 +521,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>50.9</v>
